--- a/sys_ACTION.xlsx
+++ b/sys_ACTION.xlsx
@@ -205,19 +205,19 @@
     <t>Action</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>sil</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bon</t>
-  </si>
-  <si>
-    <t>a-1</t>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t>silv</t>
+  </si>
+  <si>
+    <t>pier</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
   </si>
 </sst>
 </file>

--- a/sys_ACTION.xlsx
+++ b/sys_ACTION.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>satorugojo</t>

--- a/sys_ACTION.xlsx
+++ b/sys_ACTION.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>satorugojo</t>
@@ -205,19 +205,19 @@
     <t>Action</t>
   </si>
   <si>
-    <t>mapp</t>
-  </si>
-  <si>
-    <t>silv</t>
-  </si>
-  <si>
-    <t>pier</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
+    <t>map</t>
+  </si>
+  <si>
+    <t>sil</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>bon</t>
+  </si>
+  <si>
+    <t>a-1</t>
   </si>
 </sst>
 </file>

--- a/sys_ACTION.xlsx
+++ b/sys_ACTION.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>satorugojo</t>
@@ -205,19 +205,19 @@
     <t>Action</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>sil</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bon</t>
-  </si>
-  <si>
-    <t>a-1</t>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t>silv</t>
+  </si>
+  <si>
+    <t>pier</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
   </si>
 </sst>
 </file>
